--- a/Code/Results/Cases/Case_0_154/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_154/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.575263255156981</v>
+        <v>11.93525832574852</v>
       </c>
       <c r="D2">
-        <v>2.627542270788905</v>
+        <v>5.429571842611967</v>
       </c>
       <c r="E2">
-        <v>5.84474615345104</v>
+        <v>12.03446326042932</v>
       </c>
       <c r="F2">
-        <v>31.78595127739572</v>
+        <v>31.37004501887866</v>
       </c>
       <c r="G2">
-        <v>2.028444907597065</v>
+        <v>3.644148989456125</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>4.695421863760121</v>
+        <v>8.57919795471617</v>
       </c>
       <c r="M2">
-        <v>31.95084749572368</v>
+        <v>25.39126443584699</v>
       </c>
       <c r="N2">
-        <v>18.95446979851486</v>
+        <v>17.31393162051411</v>
       </c>
       <c r="O2">
-        <v>25.33379032197626</v>
+        <v>27.57016682120584</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.436612252303062</v>
+        <v>11.97759758143747</v>
       </c>
       <c r="D3">
-        <v>2.708901176013062</v>
+        <v>5.455844981540283</v>
       </c>
       <c r="E3">
-        <v>6.067999593068339</v>
+        <v>12.11641472385976</v>
       </c>
       <c r="F3">
-        <v>29.93345106649516</v>
+        <v>31.06515876136416</v>
       </c>
       <c r="G3">
-        <v>2.038730428127026</v>
+        <v>3.647910404639262</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>4.785580131610693</v>
+        <v>8.611272607793442</v>
       </c>
       <c r="M3">
-        <v>29.79858805412399</v>
+        <v>24.66761677828075</v>
       </c>
       <c r="N3">
-        <v>18.18035244373488</v>
+        <v>17.06337177794763</v>
       </c>
       <c r="O3">
-        <v>23.9896707136622</v>
+        <v>27.40352765126595</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.362442015537956</v>
+        <v>12.00700453916249</v>
       </c>
       <c r="D4">
-        <v>2.760110323965642</v>
+        <v>5.472732336385659</v>
       </c>
       <c r="E4">
-        <v>6.209795507709784</v>
+        <v>12.16918024285138</v>
       </c>
       <c r="F4">
-        <v>28.77557853288714</v>
+        <v>30.88758570865865</v>
       </c>
       <c r="G4">
-        <v>2.04519469024302</v>
+        <v>3.65034037958693</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>4.842214074244901</v>
+        <v>8.631936159813733</v>
       </c>
       <c r="M4">
-        <v>28.39920697214342</v>
+        <v>24.21377934149506</v>
       </c>
       <c r="N4">
-        <v>17.69150086859528</v>
+        <v>16.90975663314302</v>
       </c>
       <c r="O4">
-        <v>23.15750625515361</v>
+        <v>27.30983398726907</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.33486651810496</v>
+        <v>12.01984043253751</v>
       </c>
       <c r="D5">
-        <v>2.781290295965224</v>
+        <v>5.479804564211344</v>
       </c>
       <c r="E5">
-        <v>6.268730646686118</v>
+        <v>12.19129918281472</v>
       </c>
       <c r="F5">
-        <v>28.29899889170698</v>
+        <v>30.81771881880619</v>
       </c>
       <c r="G5">
-        <v>2.047868815055645</v>
+        <v>3.651361017739017</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>4.865629235523357</v>
+        <v>8.640601358720666</v>
       </c>
       <c r="M5">
-        <v>27.83901293499075</v>
+        <v>24.02669774776117</v>
       </c>
       <c r="N5">
-        <v>17.48914362430391</v>
+        <v>16.8472874239371</v>
       </c>
       <c r="O5">
-        <v>22.81699241671415</v>
+        <v>27.27384965003399</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.330444350675807</v>
+        <v>12.02202314454609</v>
       </c>
       <c r="D6">
-        <v>2.784825996552556</v>
+        <v>5.480990422582456</v>
       </c>
       <c r="E6">
-        <v>6.278585558159095</v>
+        <v>12.19500929184647</v>
       </c>
       <c r="F6">
-        <v>28.21959119998069</v>
+        <v>30.80627025889054</v>
       </c>
       <c r="G6">
-        <v>2.048315328272047</v>
+        <v>3.651532333616196</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>4.869538051292899</v>
+        <v>8.642055007843974</v>
       </c>
       <c r="M6">
-        <v>27.74739397098193</v>
+        <v>23.99551154256441</v>
       </c>
       <c r="N6">
-        <v>17.45536057230237</v>
+        <v>16.83692445246094</v>
       </c>
       <c r="O6">
-        <v>22.76037694105436</v>
+        <v>27.26800788818938</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.362059542898184</v>
+        <v>12.00717420457261</v>
       </c>
       <c r="D7">
-        <v>2.760394704546168</v>
+        <v>5.472826942979416</v>
       </c>
       <c r="E7">
-        <v>6.210585700388299</v>
+        <v>12.16947604854982</v>
       </c>
       <c r="F7">
-        <v>28.76916977446384</v>
+        <v>30.88663326116697</v>
       </c>
       <c r="G7">
-        <v>2.045230589837858</v>
+        <v>3.650354021015322</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>4.842528477748107</v>
+        <v>8.632052030139608</v>
       </c>
       <c r="M7">
-        <v>28.39133012401928</v>
+        <v>24.2112646073613</v>
       </c>
       <c r="N7">
-        <v>17.68878417985236</v>
+        <v>16.90891352817735</v>
       </c>
       <c r="O7">
-        <v>23.15291914294625</v>
+        <v>27.309339762065</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.525119508206987</v>
+        <v>11.94914591578256</v>
       </c>
       <c r="D8">
-        <v>2.6553312960106</v>
+        <v>5.438474313378568</v>
       </c>
       <c r="E8">
-        <v>5.920721003444656</v>
+        <v>12.06221300339991</v>
       </c>
       <c r="F8">
-        <v>31.15165112335905</v>
+        <v>31.26296833309964</v>
       </c>
       <c r="G8">
-        <v>2.031961979346874</v>
+        <v>3.645420995382662</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>4.726253151792396</v>
+        <v>8.590056555246859</v>
       </c>
       <c r="M8">
-        <v>31.22481461532806</v>
+        <v>25.14387208202385</v>
       </c>
       <c r="N8">
-        <v>18.69050889693752</v>
+        <v>17.2275341998564</v>
       </c>
       <c r="O8">
-        <v>24.87193427268379</v>
+        <v>27.51093797459647</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.936222384659255</v>
+        <v>11.86264450030498</v>
       </c>
       <c r="D9">
-        <v>2.45962310707135</v>
+        <v>5.377080441879198</v>
       </c>
       <c r="E9">
-        <v>5.391930904184774</v>
+        <v>11.87122847286348</v>
       </c>
       <c r="F9">
-        <v>35.65044907740265</v>
+        <v>32.07380959397845</v>
       </c>
       <c r="G9">
-        <v>2.007002481136551</v>
+        <v>3.63669781412018</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>4.507604308389205</v>
+        <v>8.515358879483529</v>
       </c>
       <c r="M9">
-        <v>36.17094898271904</v>
+        <v>26.88699463150682</v>
       </c>
       <c r="N9">
-        <v>20.53782718855707</v>
+        <v>17.85102946993977</v>
       </c>
       <c r="O9">
-        <v>28.17849524062538</v>
+        <v>27.97326460670584</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.299476429573435</v>
+        <v>11.81603881075373</v>
       </c>
       <c r="D10">
-        <v>2.323099967651509</v>
+        <v>5.335581790995248</v>
       </c>
       <c r="E10">
-        <v>5.032085095248641</v>
+        <v>11.74263132090609</v>
       </c>
       <c r="F10">
-        <v>38.98493591206377</v>
+        <v>32.70885882819673</v>
       </c>
       <c r="G10">
-        <v>1.989122458835313</v>
+        <v>3.630860970883794</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>4.351502020928179</v>
+        <v>8.465091868036911</v>
       </c>
       <c r="M10">
-        <v>39.44423453247774</v>
+        <v>28.10301845277555</v>
       </c>
       <c r="N10">
-        <v>21.81307912760622</v>
+        <v>18.30419320680317</v>
       </c>
       <c r="O10">
-        <v>30.64813363951567</v>
+        <v>28.35160154755031</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.479144103301298</v>
+        <v>11.79857987206242</v>
       </c>
       <c r="D11">
-        <v>2.262979679918172</v>
+        <v>5.317479398027938</v>
       </c>
       <c r="E11">
-        <v>4.876180204750029</v>
+        <v>11.68665687256163</v>
       </c>
       <c r="F11">
-        <v>40.51994266927304</v>
+        <v>33.00513969668998</v>
       </c>
       <c r="G11">
-        <v>1.981039465393701</v>
+        <v>3.628328290401964</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>4.281178204602986</v>
+        <v>8.443214402365001</v>
       </c>
       <c r="M11">
-        <v>40.85779771913173</v>
+        <v>28.63992687443359</v>
       </c>
       <c r="N11">
-        <v>22.37377492855046</v>
+        <v>18.50844512698667</v>
       </c>
       <c r="O11">
-        <v>31.87736360729945</v>
+        <v>28.53157816313827</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.549347301544305</v>
+        <v>11.79251169925263</v>
       </c>
       <c r="D12">
-        <v>2.240553976372491</v>
+        <v>5.310735525794627</v>
       </c>
       <c r="E12">
-        <v>4.818454389632551</v>
+        <v>11.66582274628739</v>
       </c>
       <c r="F12">
-        <v>41.09618066491514</v>
+        <v>33.11829619191692</v>
       </c>
       <c r="G12">
-        <v>1.977981314888669</v>
+        <v>3.627386728869665</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>4.254619706136507</v>
+        <v>8.435071362152982</v>
       </c>
       <c r="M12">
-        <v>41.38247725710135</v>
+        <v>28.84073671556652</v>
       </c>
       <c r="N12">
-        <v>22.58319977429079</v>
+        <v>18.58545086434456</v>
       </c>
       <c r="O12">
-        <v>32.33878906434293</v>
+        <v>28.60081285712857</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.534129851692144</v>
+        <v>11.79379435417784</v>
       </c>
       <c r="D13">
-        <v>2.245367501558178</v>
+        <v>5.312183004067961</v>
       </c>
       <c r="E13">
-        <v>4.830824633017725</v>
+        <v>11.67029365409148</v>
       </c>
       <c r="F13">
-        <v>40.97229443403792</v>
+        <v>33.0938847940621</v>
       </c>
       <c r="G13">
-        <v>1.978639901674144</v>
+        <v>3.627588733993269</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>4.260336838852888</v>
+        <v>8.436818831385832</v>
       </c>
       <c r="M13">
-        <v>41.26994564395656</v>
+        <v>28.79760263992916</v>
       </c>
       <c r="N13">
-        <v>22.53822672693371</v>
+        <v>18.56888247127682</v>
       </c>
       <c r="O13">
-        <v>32.2395871385343</v>
+        <v>28.58585465301761</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.484875775571158</v>
+        <v>11.79806972622347</v>
       </c>
       <c r="D14">
-        <v>2.261127487972344</v>
+        <v>5.316922351087369</v>
       </c>
       <c r="E14">
-        <v>4.871403463722006</v>
+        <v>11.68493558287015</v>
       </c>
       <c r="F14">
-        <v>40.56744853972275</v>
+        <v>33.01443047044371</v>
       </c>
       <c r="G14">
-        <v>1.980787843773806</v>
+        <v>3.628250477277859</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>4.278991953795612</v>
+        <v>8.442541638460028</v>
       </c>
       <c r="M14">
-        <v>40.90117448138957</v>
+        <v>28.65649873374004</v>
       </c>
       <c r="N14">
-        <v>22.39106304699388</v>
+        <v>18.51478762759976</v>
       </c>
       <c r="O14">
-        <v>31.91540448426318</v>
+        <v>28.5372527649446</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.454991311635958</v>
+        <v>11.80075939489653</v>
       </c>
       <c r="D15">
-        <v>2.270827274931852</v>
+        <v>5.319839795901884</v>
       </c>
       <c r="E15">
-        <v>4.896436719340096</v>
+        <v>11.6939513274381</v>
       </c>
       <c r="F15">
-        <v>40.31882574196838</v>
+        <v>32.96588455555987</v>
       </c>
       <c r="G15">
-        <v>1.98210372594196</v>
+        <v>3.628658091159744</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>4.2904272101948</v>
+        <v>8.446065425225168</v>
       </c>
       <c r="M15">
-        <v>40.6739180068692</v>
+        <v>28.56973754141081</v>
       </c>
       <c r="N15">
-        <v>22.3005408483809</v>
+        <v>18.48160673181994</v>
       </c>
       <c r="O15">
-        <v>31.71631608487897</v>
+        <v>28.5076220127243</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.288032747701116</v>
+        <v>11.81725552992135</v>
       </c>
       <c r="D16">
-        <v>2.32707316718245</v>
+        <v>5.336780395499911</v>
       </c>
       <c r="E16">
-        <v>5.042445712182451</v>
+        <v>11.74634011380615</v>
       </c>
       <c r="F16">
-        <v>38.88389235261715</v>
+        <v>32.68963628355682</v>
       </c>
       <c r="G16">
-        <v>1.989651343100026</v>
+        <v>3.631028943698217</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>4.356109426204373</v>
+        <v>8.466541452052647</v>
       </c>
       <c r="M16">
-        <v>39.35035669364486</v>
+        <v>28.06758826776447</v>
       </c>
       <c r="N16">
-        <v>21.77603593682376</v>
+        <v>18.29080090056558</v>
       </c>
       <c r="O16">
-        <v>30.56721297108656</v>
+        <v>28.33999377377613</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.189367318952192</v>
+        <v>11.82833747719443</v>
       </c>
       <c r="D17">
-        <v>2.362119686103631</v>
+        <v>5.347371244683264</v>
       </c>
       <c r="E17">
-        <v>5.134131934540224</v>
+        <v>11.77912499616146</v>
       </c>
       <c r="F17">
-        <v>37.99420831935241</v>
+        <v>32.52198864726846</v>
       </c>
       <c r="G17">
-        <v>1.994291468183631</v>
+        <v>3.632514689170423</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>4.396561058937578</v>
+        <v>8.479355651617823</v>
       </c>
       <c r="M17">
-        <v>38.51923254290407</v>
+        <v>27.75524569042458</v>
       </c>
       <c r="N17">
-        <v>21.44921179993497</v>
+        <v>18.17321352519779</v>
       </c>
       <c r="O17">
-        <v>29.87327254355091</v>
+        <v>28.2391399247215</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.133969237182201</v>
+        <v>11.8350634667643</v>
       </c>
       <c r="D18">
-        <v>2.382460009244806</v>
+        <v>5.353535843494738</v>
       </c>
       <c r="E18">
-        <v>5.187586289357685</v>
+        <v>11.79821971436703</v>
       </c>
       <c r="F18">
-        <v>37.4789180874896</v>
+        <v>32.42626431349947</v>
       </c>
       <c r="G18">
-        <v>1.996965426430322</v>
+        <v>3.633380790203238</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>4.419894325334247</v>
+        <v>8.486819199099733</v>
       </c>
       <c r="M18">
-        <v>38.0340721389231</v>
+        <v>27.5740722341807</v>
       </c>
       <c r="N18">
-        <v>21.25940776185886</v>
+        <v>18.10540593524556</v>
       </c>
       <c r="O18">
-        <v>29.51682396727574</v>
+        <v>28.18187532250173</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.115441803140703</v>
+        <v>11.83740106244978</v>
       </c>
       <c r="D19">
-        <v>2.389376874347679</v>
+        <v>5.355635625156292</v>
       </c>
       <c r="E19">
-        <v>5.205803545495995</v>
+        <v>11.80472571521484</v>
       </c>
       <c r="F19">
-        <v>37.30382734396383</v>
+        <v>32.39397737381562</v>
       </c>
       <c r="G19">
-        <v>1.997871785814413</v>
+        <v>3.633676022411338</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>4.427806781637213</v>
+        <v>8.489362251708336</v>
       </c>
       <c r="M19">
-        <v>37.86857522147042</v>
+        <v>27.51247391754177</v>
       </c>
       <c r="N19">
-        <v>21.1948338074491</v>
+        <v>18.08241959339237</v>
       </c>
       <c r="O19">
-        <v>29.39597749703313</v>
+        <v>28.16261575729846</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.199729875326943</v>
+        <v>11.82712132291223</v>
       </c>
       <c r="D20">
-        <v>2.358369701395747</v>
+        <v>5.346236276188089</v>
       </c>
       <c r="E20">
-        <v>5.12429617223061</v>
+        <v>11.77561039302095</v>
       </c>
       <c r="F20">
-        <v>38.08928357193077</v>
+        <v>32.53976308774367</v>
       </c>
       <c r="G20">
-        <v>1.993797024453409</v>
+        <v>3.632355335528467</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>4.392248213069455</v>
+        <v>8.477981922220907</v>
       </c>
       <c r="M20">
-        <v>38.60844229043368</v>
+        <v>27.78865390004353</v>
       </c>
       <c r="N20">
-        <v>21.48419234628856</v>
+        <v>18.18574945434336</v>
       </c>
       <c r="O20">
-        <v>29.93916826414079</v>
+        <v>28.24979935722273</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.499283304557329</v>
+        <v>11.7967991658206</v>
       </c>
       <c r="D21">
-        <v>2.256488611677183</v>
+        <v>5.315527277681861</v>
       </c>
       <c r="E21">
-        <v>4.859447048174825</v>
+        <v>11.68062507101183</v>
       </c>
       <c r="F21">
-        <v>40.68649478140095</v>
+        <v>33.03774285819275</v>
       </c>
       <c r="G21">
-        <v>1.980156907323272</v>
+        <v>3.628055632902114</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>4.273510784658543</v>
+        <v>8.440856877669443</v>
       </c>
       <c r="M21">
-        <v>41.00977726843264</v>
+        <v>28.69801362020035</v>
       </c>
       <c r="N21">
-        <v>22.43436797488687</v>
+        <v>18.53068634804645</v>
       </c>
       <c r="O21">
-        <v>32.01073185764181</v>
+        <v>28.55149937883699</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.707738697259003</v>
+        <v>11.78014996457794</v>
       </c>
       <c r="D22">
-        <v>2.191930430990123</v>
+        <v>5.29610463017602</v>
       </c>
       <c r="E22">
-        <v>4.694134946101571</v>
+        <v>11.62065735512091</v>
       </c>
       <c r="F22">
-        <v>42.3548189278814</v>
+        <v>33.3687570117561</v>
       </c>
       <c r="G22">
-        <v>1.971255474614684</v>
+        <v>3.625347537327166</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>4.196311289528007</v>
+        <v>8.417417820334638</v>
       </c>
       <c r="M22">
-        <v>42.51750129143455</v>
+        <v>29.27766188414861</v>
       </c>
       <c r="N22">
-        <v>23.03843547465213</v>
+        <v>18.75411119198308</v>
       </c>
       <c r="O22">
-        <v>33.34663993071424</v>
+        <v>28.75495643876038</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.595289090761854</v>
+        <v>11.78874446612252</v>
       </c>
       <c r="D23">
-        <v>2.226176846994962</v>
+        <v>5.306411753117604</v>
       </c>
       <c r="E23">
-        <v>4.781573461238436</v>
+        <v>11.65247041717529</v>
       </c>
       <c r="F23">
-        <v>41.46691558558072</v>
+        <v>33.19161412699031</v>
       </c>
       <c r="G23">
-        <v>1.976006811324434</v>
+        <v>3.626783601299659</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>4.237487193245452</v>
+        <v>8.429852516339716</v>
       </c>
       <c r="M23">
-        <v>41.71835667931993</v>
+        <v>28.96968581052393</v>
       </c>
       <c r="N23">
-        <v>22.71761094760339</v>
+        <v>18.63507080572995</v>
       </c>
       <c r="O23">
-        <v>32.6356539895561</v>
+        <v>28.64581025412185</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.195040840351757</v>
+        <v>11.82767004142807</v>
       </c>
       <c r="D24">
-        <v>2.360064476527961</v>
+        <v>5.346749159379769</v>
       </c>
       <c r="E24">
-        <v>5.128740620609151</v>
+        <v>11.77719857800932</v>
       </c>
       <c r="F24">
-        <v>38.04631191007918</v>
+        <v>32.53172520433451</v>
       </c>
       <c r="G24">
-        <v>1.994020542538298</v>
+        <v>3.632427342154125</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>4.394197808566495</v>
+        <v>8.478602684667278</v>
       </c>
       <c r="M24">
-        <v>38.56813343204764</v>
+        <v>27.77355503035079</v>
       </c>
       <c r="N24">
-        <v>21.46838357752918</v>
+        <v>18.1800825942781</v>
       </c>
       <c r="O24">
-        <v>29.90938014945409</v>
+        <v>28.24497798879281</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.814638610450621</v>
+        <v>11.88309118923197</v>
       </c>
       <c r="D25">
-        <v>2.511390960798421</v>
+        <v>5.393053267533014</v>
       </c>
       <c r="E25">
-        <v>5.530365117963917</v>
+        <v>11.92083105346116</v>
       </c>
       <c r="F25">
-        <v>34.45301509837832</v>
+        <v>31.84716575658939</v>
       </c>
       <c r="G25">
-        <v>2.01365942043391</v>
+        <v>3.638956673436301</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>4.565865901089393</v>
+        <v>8.534752571611428</v>
       </c>
       <c r="M25">
-        <v>34.89709761699814</v>
+        <v>26.42596154911183</v>
       </c>
       <c r="N25">
-        <v>20.05182274909289</v>
+        <v>17.68293000592406</v>
       </c>
       <c r="O25">
-        <v>27.29190682616968</v>
+        <v>27.8412314178596</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_154/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_154/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>11.93525832574852</v>
+        <v>7.575263255157108</v>
       </c>
       <c r="D2">
-        <v>5.429571842611967</v>
+        <v>2.627542270788785</v>
       </c>
       <c r="E2">
-        <v>12.03446326042932</v>
+        <v>5.844746153451108</v>
       </c>
       <c r="F2">
-        <v>31.37004501887866</v>
+        <v>31.78595127739568</v>
       </c>
       <c r="G2">
-        <v>3.644148989456125</v>
+        <v>2.028444907596929</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.57919795471617</v>
+        <v>4.695421863760152</v>
       </c>
       <c r="M2">
-        <v>25.39126443584699</v>
+        <v>31.95084749572376</v>
       </c>
       <c r="N2">
-        <v>17.31393162051411</v>
+        <v>18.95446979851489</v>
       </c>
       <c r="O2">
-        <v>27.57016682120584</v>
+        <v>25.3337903219762</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>11.97759758143747</v>
+        <v>7.436612252302988</v>
       </c>
       <c r="D3">
-        <v>5.455844981540283</v>
+        <v>2.708901176013062</v>
       </c>
       <c r="E3">
-        <v>12.11641472385976</v>
+        <v>6.067999593068339</v>
       </c>
       <c r="F3">
-        <v>31.06515876136416</v>
+        <v>29.93345106649517</v>
       </c>
       <c r="G3">
-        <v>3.647910404639262</v>
+        <v>2.038730428127291</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.611272607793442</v>
+        <v>4.785580131610693</v>
       </c>
       <c r="M3">
-        <v>24.66761677828075</v>
+        <v>29.79858805412401</v>
       </c>
       <c r="N3">
-        <v>17.06337177794763</v>
+        <v>18.18035244373487</v>
       </c>
       <c r="O3">
-        <v>27.40352765126595</v>
+        <v>23.9896707136622</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>12.00700453916249</v>
+        <v>7.362442015538082</v>
       </c>
       <c r="D4">
-        <v>5.472732336385659</v>
+        <v>2.760110323965713</v>
       </c>
       <c r="E4">
-        <v>12.16918024285138</v>
+        <v>6.20979550770985</v>
       </c>
       <c r="F4">
-        <v>30.88758570865865</v>
+        <v>28.77557853288714</v>
       </c>
       <c r="G4">
-        <v>3.65034037958693</v>
+        <v>2.045194690243016</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.631936159813733</v>
+        <v>4.842214074245035</v>
       </c>
       <c r="M4">
-        <v>24.21377934149506</v>
+        <v>28.39920697214349</v>
       </c>
       <c r="N4">
-        <v>16.90975663314302</v>
+        <v>17.69150086859526</v>
       </c>
       <c r="O4">
-        <v>27.30983398726907</v>
+        <v>23.1575062551536</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>12.01984043253751</v>
+        <v>7.334866518104818</v>
       </c>
       <c r="D5">
-        <v>5.479804564211344</v>
+        <v>2.781290295965217</v>
       </c>
       <c r="E5">
-        <v>12.19129918281472</v>
+        <v>6.268730646686054</v>
       </c>
       <c r="F5">
-        <v>30.81771881880619</v>
+        <v>28.29899889170702</v>
       </c>
       <c r="G5">
-        <v>3.651361017739017</v>
+        <v>2.04786881505538</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.640601358720666</v>
+        <v>4.865629235523358</v>
       </c>
       <c r="M5">
-        <v>24.02669774776117</v>
+        <v>27.83901293499078</v>
       </c>
       <c r="N5">
-        <v>16.8472874239371</v>
+        <v>17.48914362430391</v>
       </c>
       <c r="O5">
-        <v>27.27384965003399</v>
+        <v>22.81699241671419</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>12.02202314454609</v>
+        <v>7.330444350675674</v>
       </c>
       <c r="D6">
-        <v>5.480990422582456</v>
+        <v>2.784825996552689</v>
       </c>
       <c r="E6">
-        <v>12.19500929184647</v>
+        <v>6.278585558158971</v>
       </c>
       <c r="F6">
-        <v>30.80627025889054</v>
+        <v>28.21959119998066</v>
       </c>
       <c r="G6">
-        <v>3.651532333616196</v>
+        <v>2.048315328271914</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.642055007843974</v>
+        <v>4.869538051292864</v>
       </c>
       <c r="M6">
-        <v>23.99551154256441</v>
+        <v>27.74739397098192</v>
       </c>
       <c r="N6">
-        <v>16.83692445246094</v>
+        <v>17.45536057230236</v>
       </c>
       <c r="O6">
-        <v>27.26800788818938</v>
+        <v>22.76037694105434</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>12.00717420457261</v>
+        <v>7.362059542898238</v>
       </c>
       <c r="D7">
-        <v>5.472826942979416</v>
+        <v>2.760394704546166</v>
       </c>
       <c r="E7">
-        <v>12.16947604854982</v>
+        <v>6.210585700388105</v>
       </c>
       <c r="F7">
-        <v>30.88663326116697</v>
+        <v>28.7691697744638</v>
       </c>
       <c r="G7">
-        <v>3.650354021015322</v>
+        <v>2.045230589837326</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.632052030139608</v>
+        <v>4.842528477747938</v>
       </c>
       <c r="M7">
-        <v>24.2112646073613</v>
+        <v>28.39133012401929</v>
       </c>
       <c r="N7">
-        <v>16.90891352817735</v>
+        <v>17.68878417985238</v>
       </c>
       <c r="O7">
-        <v>27.309339762065</v>
+        <v>23.1529191429462</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>11.94914591578256</v>
+        <v>7.52511950820705</v>
       </c>
       <c r="D8">
-        <v>5.438474313378568</v>
+        <v>2.6553312960106</v>
       </c>
       <c r="E8">
-        <v>12.06221300339991</v>
+        <v>5.920721003444723</v>
       </c>
       <c r="F8">
-        <v>31.26296833309964</v>
+        <v>31.15165112335908</v>
       </c>
       <c r="G8">
-        <v>3.645420995382662</v>
+        <v>2.031961979346874</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.590056555246859</v>
+        <v>4.726253151792331</v>
       </c>
       <c r="M8">
-        <v>25.14387208202385</v>
+        <v>31.22481461532806</v>
       </c>
       <c r="N8">
-        <v>17.2275341998564</v>
+        <v>18.69050889693754</v>
       </c>
       <c r="O8">
-        <v>27.51093797459647</v>
+        <v>24.87193427268382</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>11.86264450030498</v>
+        <v>7.936222384659215</v>
       </c>
       <c r="D9">
-        <v>5.377080441879198</v>
+        <v>2.45962310707147</v>
       </c>
       <c r="E9">
-        <v>11.87122847286348</v>
+        <v>5.391930904184782</v>
       </c>
       <c r="F9">
-        <v>32.07380959397845</v>
+        <v>35.65044907740264</v>
       </c>
       <c r="G9">
-        <v>3.63669781412018</v>
+        <v>2.007002481136416</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.515358879483529</v>
+        <v>4.507604308389304</v>
       </c>
       <c r="M9">
-        <v>26.88699463150682</v>
+        <v>36.17094898271901</v>
       </c>
       <c r="N9">
-        <v>17.85102946993977</v>
+        <v>20.53782718855708</v>
       </c>
       <c r="O9">
-        <v>27.97326460670584</v>
+        <v>28.1784952406254</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.81603881075373</v>
+        <v>8.299476429573435</v>
       </c>
       <c r="D10">
-        <v>5.335581790995248</v>
+        <v>2.323099967651563</v>
       </c>
       <c r="E10">
-        <v>11.74263132090609</v>
+        <v>5.032085095248648</v>
       </c>
       <c r="F10">
-        <v>32.70885882819673</v>
+        <v>38.98493591206386</v>
       </c>
       <c r="G10">
-        <v>3.630860970883794</v>
+        <v>1.989122458835313</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.465091868036911</v>
+        <v>4.351502020928144</v>
       </c>
       <c r="M10">
-        <v>28.10301845277555</v>
+        <v>39.44423453247778</v>
       </c>
       <c r="N10">
-        <v>18.30419320680317</v>
+        <v>21.8130791276062</v>
       </c>
       <c r="O10">
-        <v>28.35160154755031</v>
+        <v>30.64813363951576</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.79857987206242</v>
+        <v>8.479144103301321</v>
       </c>
       <c r="D11">
-        <v>5.317479398027938</v>
+        <v>2.262979679918242</v>
       </c>
       <c r="E11">
-        <v>11.68665687256163</v>
+        <v>4.876180204749972</v>
       </c>
       <c r="F11">
-        <v>33.00513969668998</v>
+        <v>40.5199426692732</v>
       </c>
       <c r="G11">
-        <v>3.628328290401964</v>
+        <v>1.981039465393703</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.443214402365001</v>
+        <v>4.281178204602885</v>
       </c>
       <c r="M11">
-        <v>28.63992687443359</v>
+        <v>40.85779771913181</v>
       </c>
       <c r="N11">
-        <v>18.50844512698667</v>
+        <v>22.37377492855042</v>
       </c>
       <c r="O11">
-        <v>28.53157816313827</v>
+        <v>31.87736360729959</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>11.79251169925263</v>
+        <v>8.549347301544321</v>
       </c>
       <c r="D12">
-        <v>5.310735525794627</v>
+        <v>2.240553976372254</v>
       </c>
       <c r="E12">
-        <v>11.66582274628739</v>
+        <v>4.818454389632674</v>
       </c>
       <c r="F12">
-        <v>33.11829619191692</v>
+        <v>41.09618066491522</v>
       </c>
       <c r="G12">
-        <v>3.627386728869665</v>
+        <v>1.977981314888935</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.435071362152982</v>
+        <v>4.254619706136574</v>
       </c>
       <c r="M12">
-        <v>28.84073671556652</v>
+        <v>41.38247725710137</v>
       </c>
       <c r="N12">
-        <v>18.58545086434456</v>
+        <v>22.58319977429076</v>
       </c>
       <c r="O12">
-        <v>28.60081285712857</v>
+        <v>32.33878906434298</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>11.79379435417784</v>
+        <v>8.534129851692091</v>
       </c>
       <c r="D13">
-        <v>5.312183004067961</v>
+        <v>2.245367501558249</v>
       </c>
       <c r="E13">
-        <v>11.67029365409148</v>
+        <v>4.830824633017658</v>
       </c>
       <c r="F13">
-        <v>33.0938847940621</v>
+        <v>40.97229443403791</v>
       </c>
       <c r="G13">
-        <v>3.627588733993269</v>
+        <v>1.978639901674144</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.436818831385832</v>
+        <v>4.260336838852857</v>
       </c>
       <c r="M13">
-        <v>28.79760263992916</v>
+        <v>41.26994564395658</v>
       </c>
       <c r="N13">
-        <v>18.56888247127682</v>
+        <v>22.53822672693372</v>
       </c>
       <c r="O13">
-        <v>28.58585465301761</v>
+        <v>32.2395871385343</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>11.79806972622347</v>
+        <v>8.484875775571126</v>
       </c>
       <c r="D14">
-        <v>5.316922351087369</v>
+        <v>2.261127487972274</v>
       </c>
       <c r="E14">
-        <v>11.68493558287015</v>
+        <v>4.871403463722003</v>
       </c>
       <c r="F14">
-        <v>33.01443047044371</v>
+        <v>40.5674485397228</v>
       </c>
       <c r="G14">
-        <v>3.628250477277859</v>
+        <v>1.980787843773536</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.442541638460028</v>
+        <v>4.278991953795545</v>
       </c>
       <c r="M14">
-        <v>28.65649873374004</v>
+        <v>40.90117448138959</v>
       </c>
       <c r="N14">
-        <v>18.51478762759976</v>
+        <v>22.39106304699389</v>
       </c>
       <c r="O14">
-        <v>28.5372527649446</v>
+        <v>31.91540448426322</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>11.80075939489653</v>
+        <v>8.454991311635935</v>
       </c>
       <c r="D15">
-        <v>5.319839795901884</v>
+        <v>2.270827274931901</v>
       </c>
       <c r="E15">
-        <v>11.6939513274381</v>
+        <v>4.896436719340047</v>
       </c>
       <c r="F15">
-        <v>32.96588455555987</v>
+        <v>40.31882574196835</v>
       </c>
       <c r="G15">
-        <v>3.628658091159744</v>
+        <v>1.982103725941963</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.446065425225168</v>
+        <v>4.290427210194799</v>
       </c>
       <c r="M15">
-        <v>28.56973754141081</v>
+        <v>40.6739180068692</v>
       </c>
       <c r="N15">
-        <v>18.48160673181994</v>
+        <v>22.30054084838092</v>
       </c>
       <c r="O15">
-        <v>28.5076220127243</v>
+        <v>31.71631608487895</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>11.81725552992135</v>
+        <v>8.288032747701193</v>
       </c>
       <c r="D16">
-        <v>5.336780395499911</v>
+        <v>2.327073167182505</v>
       </c>
       <c r="E16">
-        <v>11.74634011380615</v>
+        <v>5.042445712182512</v>
       </c>
       <c r="F16">
-        <v>32.68963628355682</v>
+        <v>38.88389235261715</v>
       </c>
       <c r="G16">
-        <v>3.631028943698217</v>
+        <v>1.989651343100026</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.466541452052647</v>
+        <v>4.356109426204405</v>
       </c>
       <c r="M16">
-        <v>28.06758826776447</v>
+        <v>39.35035669364485</v>
       </c>
       <c r="N16">
-        <v>18.29080090056558</v>
+        <v>21.77603593682377</v>
       </c>
       <c r="O16">
-        <v>28.33999377377613</v>
+        <v>30.56721297108654</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>11.82833747719443</v>
+        <v>8.189367318952144</v>
       </c>
       <c r="D17">
-        <v>5.347371244683264</v>
+        <v>2.362119686103792</v>
       </c>
       <c r="E17">
-        <v>11.77912499616146</v>
+        <v>5.134131934540167</v>
       </c>
       <c r="F17">
-        <v>32.52198864726846</v>
+        <v>37.99420831935234</v>
       </c>
       <c r="G17">
-        <v>3.632514689170423</v>
+        <v>1.994291468183365</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.479355651617823</v>
+        <v>4.396561058937475</v>
       </c>
       <c r="M17">
-        <v>27.75524569042458</v>
+        <v>38.51923254290405</v>
       </c>
       <c r="N17">
-        <v>18.17321352519779</v>
+        <v>21.44921179993499</v>
       </c>
       <c r="O17">
-        <v>28.2391399247215</v>
+        <v>29.87327254355086</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>11.8350634667643</v>
+        <v>8.133969237182203</v>
       </c>
       <c r="D18">
-        <v>5.353535843494738</v>
+        <v>2.382460009244869</v>
       </c>
       <c r="E18">
-        <v>11.79821971436703</v>
+        <v>5.187586289357744</v>
       </c>
       <c r="F18">
-        <v>32.42626431349947</v>
+        <v>37.47891808748956</v>
       </c>
       <c r="G18">
-        <v>3.633380790203238</v>
+        <v>1.996965426430586</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.486819199099733</v>
+        <v>4.419894325334214</v>
       </c>
       <c r="M18">
-        <v>27.5740722341807</v>
+        <v>38.03407213892309</v>
       </c>
       <c r="N18">
-        <v>18.10540593524556</v>
+        <v>21.25940776185888</v>
       </c>
       <c r="O18">
-        <v>28.18187532250173</v>
+        <v>29.51682396727573</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>11.83740106244978</v>
+        <v>8.115441803140639</v>
       </c>
       <c r="D19">
-        <v>5.355635625156292</v>
+        <v>2.389376874347679</v>
       </c>
       <c r="E19">
-        <v>11.80472571521484</v>
+        <v>5.205803545495994</v>
       </c>
       <c r="F19">
-        <v>32.39397737381562</v>
+        <v>37.30382734396392</v>
       </c>
       <c r="G19">
-        <v>3.633676022411338</v>
+        <v>1.99787178581428</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.489362251708336</v>
+        <v>4.42780678163728</v>
       </c>
       <c r="M19">
-        <v>27.51247391754177</v>
+        <v>37.86857522147047</v>
       </c>
       <c r="N19">
-        <v>18.08241959339237</v>
+        <v>21.1948338074491</v>
       </c>
       <c r="O19">
-        <v>28.16261575729846</v>
+        <v>29.39597749703313</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>11.82712132291223</v>
+        <v>8.199729875326831</v>
       </c>
       <c r="D20">
-        <v>5.346236276188089</v>
+        <v>2.358369701395743</v>
       </c>
       <c r="E20">
-        <v>11.77561039302095</v>
+        <v>5.124296172230613</v>
       </c>
       <c r="F20">
-        <v>32.53976308774367</v>
+        <v>38.08928357193081</v>
       </c>
       <c r="G20">
-        <v>3.632355335528467</v>
+        <v>1.993797024453811</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.477981922220907</v>
+        <v>4.392248213069388</v>
       </c>
       <c r="M20">
-        <v>27.78865390004353</v>
+        <v>38.6084422904337</v>
       </c>
       <c r="N20">
-        <v>18.18574945434336</v>
+        <v>21.48419234628856</v>
       </c>
       <c r="O20">
-        <v>28.24979935722273</v>
+        <v>29.9391682641408</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>11.7967991658206</v>
+        <v>8.499283304557242</v>
       </c>
       <c r="D21">
-        <v>5.315527277681861</v>
+        <v>2.256488611677288</v>
       </c>
       <c r="E21">
-        <v>11.68062507101183</v>
+        <v>4.859447048174764</v>
       </c>
       <c r="F21">
-        <v>33.03774285819275</v>
+        <v>40.68649478140104</v>
       </c>
       <c r="G21">
-        <v>3.628055632902114</v>
+        <v>1.980156907323006</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.440856877669443</v>
+        <v>4.273510784658576</v>
       </c>
       <c r="M21">
-        <v>28.69801362020035</v>
+        <v>41.00977726843267</v>
       </c>
       <c r="N21">
-        <v>18.53068634804645</v>
+        <v>22.43436797488687</v>
       </c>
       <c r="O21">
-        <v>28.55149937883699</v>
+        <v>32.01073185764185</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.78014996457794</v>
+        <v>8.70773869725905</v>
       </c>
       <c r="D22">
-        <v>5.29610463017602</v>
+        <v>2.191930430990048</v>
       </c>
       <c r="E22">
-        <v>11.62065735512091</v>
+        <v>4.694134946101576</v>
       </c>
       <c r="F22">
-        <v>33.3687570117561</v>
+        <v>42.35481892788145</v>
       </c>
       <c r="G22">
-        <v>3.625347537327166</v>
+        <v>1.971255474614686</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.417417820334638</v>
+        <v>4.196311289528037</v>
       </c>
       <c r="M22">
-        <v>29.27766188414861</v>
+        <v>42.51750129143458</v>
       </c>
       <c r="N22">
-        <v>18.75411119198308</v>
+        <v>23.03843547465214</v>
       </c>
       <c r="O22">
-        <v>28.75495643876038</v>
+        <v>33.34663993071428</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.78874446612252</v>
+        <v>8.59528909076192</v>
       </c>
       <c r="D23">
-        <v>5.306411753117604</v>
+        <v>2.226176846995001</v>
       </c>
       <c r="E23">
-        <v>11.65247041717529</v>
+        <v>4.781573461238317</v>
       </c>
       <c r="F23">
-        <v>33.19161412699031</v>
+        <v>41.46691558558076</v>
       </c>
       <c r="G23">
-        <v>3.626783601299659</v>
+        <v>1.976006811324303</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.429852516339716</v>
+        <v>4.237487193245353</v>
       </c>
       <c r="M23">
-        <v>28.96968581052393</v>
+        <v>41.71835667931995</v>
       </c>
       <c r="N23">
-        <v>18.63507080572995</v>
+        <v>22.7176109476034</v>
       </c>
       <c r="O23">
-        <v>28.64581025412185</v>
+        <v>32.63565398955613</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>11.82767004142807</v>
+        <v>8.195040840351771</v>
       </c>
       <c r="D24">
-        <v>5.346749159379769</v>
+        <v>2.360064476527886</v>
       </c>
       <c r="E24">
-        <v>11.77719857800932</v>
+        <v>5.128740620609153</v>
       </c>
       <c r="F24">
-        <v>32.53172520433451</v>
+        <v>38.0463119100793</v>
       </c>
       <c r="G24">
-        <v>3.632427342154125</v>
+        <v>1.994020542538163</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.478602684667278</v>
+        <v>4.394197808566496</v>
       </c>
       <c r="M24">
-        <v>27.77355503035079</v>
+        <v>38.56813343204772</v>
       </c>
       <c r="N24">
-        <v>18.1800825942781</v>
+        <v>21.46838357752919</v>
       </c>
       <c r="O24">
-        <v>28.24497798879281</v>
+        <v>29.90938014945411</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>11.88309118923197</v>
+        <v>7.814638610450622</v>
       </c>
       <c r="D25">
-        <v>5.393053267533014</v>
+        <v>2.511390960798428</v>
       </c>
       <c r="E25">
-        <v>11.92083105346116</v>
+        <v>5.530365117963976</v>
       </c>
       <c r="F25">
-        <v>31.84716575658939</v>
+        <v>34.4530150983783</v>
       </c>
       <c r="G25">
-        <v>3.638956673436301</v>
+        <v>2.013659420434039</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.534752571611428</v>
+        <v>4.565865901089461</v>
       </c>
       <c r="M25">
-        <v>26.42596154911183</v>
+        <v>34.8970976169981</v>
       </c>
       <c r="N25">
-        <v>17.68293000592406</v>
+        <v>20.05182274909289</v>
       </c>
       <c r="O25">
-        <v>27.8412314178596</v>
+        <v>27.29190682616969</v>
       </c>
     </row>
   </sheetData>
